--- a/GAHC_InPatient/Test-data/data_HP.xlsx
+++ b/GAHC_InPatient/Test-data/data_HP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace_GAHC\New_InPatient\Test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation testing tools\GAHC_Islam\MOHAutomationRep\MOHAutomationRep\GAHC_InPatient\Test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7FAC50-6F4C-47DF-8196-CEB4B62F5158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B465E1-4139-4376-A2D9-6138845E47CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D7F768DF-73CB-4E61-822F-40082C1E529B}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
